--- a/rfuse/Archive/로컬_개별실험_v3/merged_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/merged_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/Archive/로컬_개별실험_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_485207B1868FAB2070FB9E31F0DADAF4CC0AE62C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B13909-1758-420B-A262-9627EE7A045A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_4CE8C6B3A46EE8345CD89431F0DADAF4DC07EFE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A0F943-5B33-444C-B052-E2E57FD151D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>randread_128k_IOPS</t>
   </si>
@@ -34,7 +34,16 @@
     <t>rfuse</t>
   </si>
   <si>
+    <t>rfuse_rr</t>
+  </si>
+  <si>
+    <t>rfuse_thr</t>
+  </si>
+  <si>
     <t>rfuse_busy</t>
+  </si>
+  <si>
+    <t>rfuse_Ecore</t>
   </si>
   <si>
     <t>randread_4k_IOPS</t>
@@ -261,29 +270,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1045</c:v>
+                  <c:v>8462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4173</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5197</c:v>
+                  <c:v>24100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10600</c:v>
+                  <c:v>28900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28200</c:v>
+                  <c:v>31600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11600</c:v>
+                  <c:v>32300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4532-4FC0-9AA2-C228ED6F536F}"/>
+              <c16:uniqueId val="{00000000-5E7F-4761-A079-33C891B0DA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,29 +354,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>953</c:v>
+                  <c:v>6564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4633</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3813</c:v>
+                  <c:v>23100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9706</c:v>
+                  <c:v>30700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13300</c:v>
+                  <c:v>34200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21200</c:v>
+                  <c:v>34100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4532-4FC0-9AA2-C228ED6F536F}"/>
+              <c16:uniqueId val="{00000001-5E7F-4761-A079-33C891B0DA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -429,29 +438,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>961</c:v>
+                  <c:v>4491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2568</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3673</c:v>
+                  <c:v>19300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13200</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11000</c:v>
+                  <c:v>31800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15000</c:v>
+                  <c:v>25500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4532-4FC0-9AA2-C228ED6F536F}"/>
+              <c16:uniqueId val="{00000002-5E7F-4761-A079-33C891B0DA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -464,7 +473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -513,29 +522,283 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>969</c:v>
+                  <c:v>5535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4079</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3929</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11300</c:v>
+                  <c:v>26100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10500</c:v>
+                  <c:v>29000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20900</c:v>
+                  <c:v>24400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4532-4FC0-9AA2-C228ED6F536F}"/>
+              <c16:uniqueId val="{00000003-5E7F-4761-A079-33C891B0DA88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5E7F-4761-A079-33C891B0DA88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5E7F-4761-A079-33C891B0DA88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5E7F-4761-A079-33C891B0DA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -549,11 +812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="664442528"/>
-        <c:axId val="664438688"/>
+        <c:axId val="1294624"/>
+        <c:axId val="1296544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664442528"/>
+        <c:axId val="1294624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +859,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664438688"/>
+        <c:crossAx val="1296544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664438688"/>
+        <c:axId val="1296544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +918,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664442528"/>
+        <c:crossAx val="1294624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,7 +1061,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
+              <c:f>Sheet2!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -819,7 +1082,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$G$10</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -846,34 +1109,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$11:$G$11</c:f>
+              <c:f>Sheet2!$B$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26300</c:v>
+                  <c:v>4253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22600</c:v>
+                  <c:v>8078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41600</c:v>
+                  <c:v>16600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83500</c:v>
+                  <c:v>33800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160000</c:v>
+                  <c:v>263000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256000</c:v>
+                  <c:v>369000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C83-4343-BF42-7381704C0E7B}"/>
+              <c16:uniqueId val="{00000000-D2B5-4067-BFC0-2DB572BD3C34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -882,7 +1145,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
+              <c:f>Sheet2!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,7 +1166,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$G$10</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -930,34 +1193,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$12:$G$12</c:f>
+              <c:f>Sheet2!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12100</c:v>
+                  <c:v>3979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20600</c:v>
+                  <c:v>7992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43400</c:v>
+                  <c:v>16500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81700</c:v>
+                  <c:v>31000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147000</c:v>
+                  <c:v>199000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>184000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C83-4343-BF42-7381704C0E7B}"/>
+              <c16:uniqueId val="{00000001-D2B5-4067-BFC0-2DB572BD3C34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,7 +1229,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$13</c:f>
+              <c:f>Sheet2!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -987,7 +1250,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$G$10</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1014,34 +1277,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$16:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12600</c:v>
+                  <c:v>3993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19300</c:v>
+                  <c:v>7947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41200</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81700</c:v>
+                  <c:v>31900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151000</c:v>
+                  <c:v>217000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194000</c:v>
+                  <c:v>271000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6C83-4343-BF42-7381704C0E7B}"/>
+              <c16:uniqueId val="{00000002-D2B5-4067-BFC0-2DB572BD3C34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1050,11 +1313,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$14</c:f>
+              <c:f>Sheet2!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1071,7 +1334,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$G$10</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1098,34 +1361,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$14:$G$14</c:f>
+              <c:f>Sheet2!$B$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14400</c:v>
+                  <c:v>4230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23400</c:v>
+                  <c:v>7416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46500</c:v>
+                  <c:v>15900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81300</c:v>
+                  <c:v>137000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150000</c:v>
+                  <c:v>211000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172000</c:v>
+                  <c:v>273000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6C83-4343-BF42-7381704C0E7B}"/>
+              <c16:uniqueId val="{00000003-D2B5-4067-BFC0-2DB572BD3C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2B5-4067-BFC0-2DB572BD3C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2B5-4067-BFC0-2DB572BD3C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D2B5-4067-BFC0-2DB572BD3C34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1139,11 +1656,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="990035376"/>
-        <c:axId val="990026256"/>
+        <c:axId val="74626784"/>
+        <c:axId val="74621024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="990035376"/>
+        <c:axId val="74626784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1703,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990026256"/>
+        <c:crossAx val="74621024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990026256"/>
+        <c:axId val="74621024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1762,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990035376"/>
+        <c:crossAx val="74626784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1388,7 +1905,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$19</c:f>
+              <c:f>Sheet2!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1409,7 +1926,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$G$18</c:f>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1436,34 +1953,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$19:$G$19</c:f>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2938</c:v>
+                  <c:v>11300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3540</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3696</c:v>
+                  <c:v>17400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3560</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3674</c:v>
+                  <c:v>21500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4099</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A1E-41EF-88C9-B15838A61810}"/>
+              <c16:uniqueId val="{00000000-BD55-4235-AB0D-399BA10DA68D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1472,7 +1989,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$20</c:f>
+              <c:f>Sheet2!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1493,7 +2010,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$G$18</c:f>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1520,34 +2037,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$20:$G$20</c:f>
+              <c:f>Sheet2!$B$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7353</c:v>
+                  <c:v>7876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12800</c:v>
+                  <c:v>11800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16500</c:v>
+                  <c:v>15300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3727</c:v>
+                  <c:v>18300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3593</c:v>
+                  <c:v>18300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3646</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0A1E-41EF-88C9-B15838A61810}"/>
+              <c16:uniqueId val="{00000001-BD55-4235-AB0D-399BA10DA68D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1556,7 +2073,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$21</c:f>
+              <c:f>Sheet2!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1577,7 +2094,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$G$18</c:f>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1604,34 +2121,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$G$21</c:f>
+              <c:f>Sheet2!$B$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2836</c:v>
+                  <c:v>7314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3207</c:v>
+                  <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3366</c:v>
+                  <c:v>12300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3604</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3804</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4835</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0A1E-41EF-88C9-B15838A61810}"/>
+              <c16:uniqueId val="{00000002-BD55-4235-AB0D-399BA10DA68D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1640,11 +2157,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$22</c:f>
+              <c:f>Sheet2!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1661,7 +2178,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$G$18</c:f>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1688,34 +2205,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$22:$G$22</c:f>
+              <c:f>Sheet2!$B$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3047</c:v>
+                  <c:v>7366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3424</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3606</c:v>
+                  <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3740</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3942</c:v>
+                  <c:v>12900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4469</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0A1E-41EF-88C9-B15838A61810}"/>
+              <c16:uniqueId val="{00000003-BD55-4235-AB0D-399BA10DA68D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BD55-4235-AB0D-399BA10DA68D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BD55-4235-AB0D-399BA10DA68D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BD55-4235-AB0D-399BA10DA68D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1729,11 +2500,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="989928816"/>
-        <c:axId val="989917776"/>
+        <c:axId val="1722910448"/>
+        <c:axId val="1722909008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="989928816"/>
+        <c:axId val="1722910448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +2547,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989917776"/>
+        <c:crossAx val="1722909008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +2555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989917776"/>
+        <c:axId val="1722909008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +2606,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989928816"/>
+        <c:crossAx val="1722910448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1978,7 +2749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$27</c:f>
+              <c:f>Sheet2!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1999,7 +2770,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$26:$G$26</c:f>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2026,34 +2797,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$G$27</c:f>
+              <c:f>Sheet2!$B$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>364000</c:v>
+                  <c:v>386000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466000</c:v>
+                  <c:v>485000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>572000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>599000</c:v>
+                  <c:v>620000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>648000</c:v>
+                  <c:v>618000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188000</c:v>
+                  <c:v>631000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2C9-4C3A-847F-7E26C6926E3C}"/>
+              <c16:uniqueId val="{00000000-B2C7-497E-846F-7A2C70C1DD9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2062,7 +2833,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$28</c:f>
+              <c:f>Sheet2!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2083,7 +2854,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$26:$G$26</c:f>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2110,34 +2881,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$28:$G$28</c:f>
+              <c:f>Sheet2!$B$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>117000</c:v>
+                  <c:v>113000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194000</c:v>
+                  <c:v>199000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>285000</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>361000</c:v>
+                  <c:v>358000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>438000</c:v>
+                  <c:v>403000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>478000</c:v>
+                  <c:v>452000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2C9-4C3A-847F-7E26C6926E3C}"/>
+              <c16:uniqueId val="{00000001-B2C7-497E-846F-7A2C70C1DD9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2146,7 +2917,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$29</c:f>
+              <c:f>Sheet2!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2167,7 +2938,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$26:$G$26</c:f>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2194,34 +2965,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$29:$G$29</c:f>
+              <c:f>Sheet2!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>138000</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184000</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193000</c:v>
+                  <c:v>201000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185000</c:v>
+                  <c:v>175000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117000</c:v>
+                  <c:v>157000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E2C9-4C3A-847F-7E26C6926E3C}"/>
+              <c16:uniqueId val="{00000002-B2C7-497E-846F-7A2C70C1DD9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2230,11 +3001,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$30</c:f>
+              <c:f>Sheet2!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2251,7 +3022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$26:$G$26</c:f>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2278,34 +3049,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$G$30</c:f>
+              <c:f>Sheet2!$B$39:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121000</c:v>
+                  <c:v>137000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308000</c:v>
+                  <c:v>197000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>431000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410000</c:v>
+                  <c:v>185000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158000</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E2C9-4C3A-847F-7E26C6926E3C}"/>
+              <c16:uniqueId val="{00000003-B2C7-497E-846F-7A2C70C1DD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B2C7-497E-846F-7A2C70C1DD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>276000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B2C7-497E-846F-7A2C70C1DD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B2C7-497E-846F-7A2C70C1DD9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2319,11 +3344,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="989936496"/>
-        <c:axId val="989920176"/>
+        <c:axId val="6415136"/>
+        <c:axId val="6417056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="989936496"/>
+        <c:axId val="6415136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +3391,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989920176"/>
+        <c:crossAx val="6417056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2374,7 +3399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989920176"/>
+        <c:axId val="6417056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +3450,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989936496"/>
+        <c:crossAx val="6415136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2568,7 +3593,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$35</c:f>
+              <c:f>Sheet2!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2589,7 +3614,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$34:$G$34</c:f>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2616,34 +3641,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$35:$G$35</c:f>
+              <c:f>Sheet2!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3459</c:v>
+                  <c:v>3605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5512</c:v>
+                  <c:v>5801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8747</c:v>
+                  <c:v>8258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9651</c:v>
+                  <c:v>9214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9295</c:v>
+                  <c:v>6279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20700</c:v>
+                  <c:v>8436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AD1-439F-B556-B52A665121F9}"/>
+              <c16:uniqueId val="{00000000-07C9-49AD-9FC3-7ED7BDF680C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2652,7 +3677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$36</c:f>
+              <c:f>Sheet2!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2673,7 +3698,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$34:$G$34</c:f>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2700,34 +3725,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$G$36</c:f>
+              <c:f>Sheet2!$B$48:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3346</c:v>
+                  <c:v>2645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4242</c:v>
+                  <c:v>4320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7447</c:v>
+                  <c:v>8846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7634</c:v>
+                  <c:v>8258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10900</c:v>
+                  <c:v>5803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10800</c:v>
+                  <c:v>11200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AD1-439F-B556-B52A665121F9}"/>
+              <c16:uniqueId val="{00000001-07C9-49AD-9FC3-7ED7BDF680C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2736,7 +3761,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$37</c:f>
+              <c:f>Sheet2!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2757,7 +3782,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$34:$G$34</c:f>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2784,34 +3809,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$37:$G$37</c:f>
+              <c:f>Sheet2!$B$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3700</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3527</c:v>
+                  <c:v>2592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7613</c:v>
+                  <c:v>5375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9448</c:v>
+                  <c:v>7742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9542</c:v>
+                  <c:v>8414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10400</c:v>
+                  <c:v>11400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3AD1-439F-B556-B52A665121F9}"/>
+              <c16:uniqueId val="{00000002-07C9-49AD-9FC3-7ED7BDF680C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2820,11 +3845,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$38</c:f>
+              <c:f>Sheet2!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2841,7 +3866,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$34:$G$34</c:f>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2868,34 +3893,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$38:$G$38</c:f>
+              <c:f>Sheet2!$B$50:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4087</c:v>
+                  <c:v>2235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4518</c:v>
+                  <c:v>3878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6180</c:v>
+                  <c:v>8031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14800</c:v>
+                  <c:v>9525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8770</c:v>
+                  <c:v>8808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20300</c:v>
+                  <c:v>8395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3AD1-439F-B556-B52A665121F9}"/>
+              <c16:uniqueId val="{00000003-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-07C9-49AD-9FC3-7ED7BDF680C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2909,11 +4188,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="989982096"/>
-        <c:axId val="989977776"/>
+        <c:axId val="209849536"/>
+        <c:axId val="209855296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="989982096"/>
+        <c:axId val="209849536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +4235,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989977776"/>
+        <c:crossAx val="209855296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2964,7 +4243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989977776"/>
+        <c:axId val="209855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +4294,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989982096"/>
+        <c:crossAx val="209849536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3158,7 +4437,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3179,7 +4458,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$G$42</c:f>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3206,34 +4485,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$43:$G$43</c:f>
+              <c:f>Sheet2!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>152000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180000</c:v>
+                  <c:v>182000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271000</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300000</c:v>
+                  <c:v>301000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281000</c:v>
+                  <c:v>273000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>767000</c:v>
+                  <c:v>354000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FBA-4298-AE37-E11B830C1FBA}"/>
+              <c16:uniqueId val="{00000000-AE6A-451E-ADE3-858019AE0484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3242,7 +4521,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$44</c:f>
+              <c:f>Sheet2!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3263,7 +4542,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$G$42</c:f>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3290,34 +4569,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$44:$G$44</c:f>
+              <c:f>Sheet2!$B$59:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121000</c:v>
+                  <c:v>88600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139000</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254000</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>451000</c:v>
+                  <c:v>271000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>255000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>701000</c:v>
+                  <c:v>333000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1FBA-4298-AE37-E11B830C1FBA}"/>
+              <c16:uniqueId val="{00000001-AE6A-451E-ADE3-858019AE0484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3326,7 +4605,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$45</c:f>
+              <c:f>Sheet2!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3347,7 +4626,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$G$42</c:f>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3374,34 +4653,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$45:$G$45</c:f>
+              <c:f>Sheet2!$B$60:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91300</c:v>
+                  <c:v>82500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105000</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>334000</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>304000</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>309000</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367000</c:v>
+                  <c:v>342000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1FBA-4298-AE37-E11B830C1FBA}"/>
+              <c16:uniqueId val="{00000002-AE6A-451E-ADE3-858019AE0484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3410,11 +4689,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$46</c:f>
+              <c:f>Sheet2!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3431,7 +4710,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$G$42</c:f>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3458,34 +4737,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:f>Sheet2!$B$61:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>87400</c:v>
+                  <c:v>83400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152000</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265000</c:v>
+                  <c:v>259000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242000</c:v>
+                  <c:v>306000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>267000</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>646000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1FBA-4298-AE37-E11B830C1FBA}"/>
+              <c16:uniqueId val="{00000003-AE6A-451E-ADE3-858019AE0484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$62:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>403000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE6A-451E-ADE3-858019AE0484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$63:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AE6A-451E-ADE3-858019AE0484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$64:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AE6A-451E-ADE3-858019AE0484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3499,11 +5032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="989971056"/>
-        <c:axId val="989971536"/>
+        <c:axId val="152339056"/>
+        <c:axId val="152340016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="989971056"/>
+        <c:axId val="152339056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +5079,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989971536"/>
+        <c:crossAx val="152340016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,7 +5087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989971536"/>
+        <c:axId val="152340016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +5138,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989971056"/>
+        <c:crossAx val="152339056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3748,7 +5281,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$51</c:f>
+              <c:f>Sheet2!$A$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3769,7 +5302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$50:$G$50</c:f>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3796,34 +5329,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$51:$G$51</c:f>
+              <c:f>Sheet2!$B$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10600</c:v>
+                  <c:v>8982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12700</c:v>
+                  <c:v>11800</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13800</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>14100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14700</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>14800</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BD8-4E61-B6A5-6910AEBB9CA1}"/>
+              <c16:uniqueId val="{00000000-1702-4224-ABA3-89ED7FBDE29A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3832,7 +5365,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$52</c:f>
+              <c:f>Sheet2!$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3853,7 +5386,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$50:$G$50</c:f>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3880,34 +5413,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$52:$G$52</c:f>
+              <c:f>Sheet2!$B$70:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7314</c:v>
+                  <c:v>6826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9929</c:v>
+                  <c:v>9022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11000</c:v>
+                  <c:v>11400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13200</c:v>
+                  <c:v>11900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14400</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14800</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BD8-4E61-B6A5-6910AEBB9CA1}"/>
+              <c16:uniqueId val="{00000001-1702-4224-ABA3-89ED7FBDE29A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3916,7 +5449,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$53</c:f>
+              <c:f>Sheet2!$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3937,7 +5470,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$50:$G$50</c:f>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3964,34 +5497,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$53:$G$53</c:f>
+              <c:f>Sheet2!$B$71:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7275</c:v>
+                  <c:v>5953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9051</c:v>
+                  <c:v>7340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9929</c:v>
+                  <c:v>9287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10600</c:v>
+                  <c:v>9340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12100</c:v>
+                  <c:v>9443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12700</c:v>
+                  <c:v>8863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BD8-4E61-B6A5-6910AEBB9CA1}"/>
+              <c16:uniqueId val="{00000002-1702-4224-ABA3-89ED7FBDE29A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4000,11 +5533,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$54</c:f>
+              <c:f>Sheet2!$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4021,7 +5554,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$50:$G$50</c:f>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4048,34 +5581,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$54:$G$54</c:f>
+              <c:f>Sheet2!$B$72:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6872</c:v>
+                  <c:v>5851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9102</c:v>
+                  <c:v>7728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11700</c:v>
+                  <c:v>8623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12000</c:v>
+                  <c:v>9383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14300</c:v>
+                  <c:v>9383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13900</c:v>
+                  <c:v>8735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9BD8-4E61-B6A5-6910AEBB9CA1}"/>
+              <c16:uniqueId val="{00000003-1702-4224-ABA3-89ED7FBDE29A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$73:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1702-4224-ABA3-89ED7FBDE29A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$74:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1702-4224-ABA3-89ED7FBDE29A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1702-4224-ABA3-89ED7FBDE29A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4089,11 +5876,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="664403648"/>
-        <c:axId val="664412288"/>
+        <c:axId val="68611776"/>
+        <c:axId val="68613216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664403648"/>
+        <c:axId val="68611776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,7 +5923,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664412288"/>
+        <c:crossAx val="68613216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4144,7 +5931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664412288"/>
+        <c:axId val="68613216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,7 +5982,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664403648"/>
+        <c:crossAx val="68611776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4338,7 +6125,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$59</c:f>
+              <c:f>Sheet2!$A$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4359,7 +6146,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$58:$G$58</c:f>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4386,34 +6173,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$59:$G$59</c:f>
+              <c:f>Sheet2!$B$80:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>309000</c:v>
+                  <c:v>331000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379000</c:v>
+                  <c:v>428000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>434000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>436000</c:v>
+                  <c:v>545000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>467000</c:v>
+                  <c:v>570000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>482000</c:v>
+                  <c:v>522000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B288-47F6-B0D4-6B16A3FBBD8E}"/>
+              <c16:uniqueId val="{00000000-7130-45C1-B6A6-D99E0819612A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4422,7 +6209,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$60</c:f>
+              <c:f>Sheet2!$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4443,7 +6230,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$58:$G$58</c:f>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4470,34 +6257,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$60:$G$60</c:f>
+              <c:f>Sheet2!$B$81:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>116000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197000</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>261000</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>327000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419000</c:v>
+                  <c:v>392000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>457000</c:v>
+                  <c:v>392000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B288-47F6-B0D4-6B16A3FBBD8E}"/>
+              <c16:uniqueId val="{00000001-7130-45C1-B6A6-D99E0819612A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4506,7 +6293,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$61</c:f>
+              <c:f>Sheet2!$A$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4527,7 +6314,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$58:$G$58</c:f>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4554,34 +6341,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$61:$G$61</c:f>
+              <c:f>Sheet2!$B$82:$G$82</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>131000</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163000</c:v>
+                  <c:v>155000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183000</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221000</c:v>
+                  <c:v>215000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>216000</c:v>
+                  <c:v>201000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B288-47F6-B0D4-6B16A3FBBD8E}"/>
+              <c16:uniqueId val="{00000002-7130-45C1-B6A6-D99E0819612A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4590,11 +6377,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$62</c:f>
+              <c:f>Sheet2!$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rfuse_busy</c:v>
+                  <c:v>rfuse_rr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4611,7 +6398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$58:$G$58</c:f>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4638,34 +6425,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$62:$G$62</c:f>
+              <c:f>Sheet2!$B$83:$G$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>152000</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177000</c:v>
+                  <c:v>185000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>278000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>364000</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>434000</c:v>
+                  <c:v>181000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>258000</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B288-47F6-B0D4-6B16A3FBBD8E}"/>
+              <c16:uniqueId val="{00000003-7130-45C1-B6A6-D99E0819612A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_thr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$84:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>122000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7130-45C1-B6A6-D99E0819612A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_busy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$85:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>121000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>283000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7130-45C1-B6A6-D99E0819612A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse_Ecore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$79:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$86:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7130-45C1-B6A6-D99E0819612A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4679,11 +6720,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="664394528"/>
-        <c:axId val="664402208"/>
+        <c:axId val="219385888"/>
+        <c:axId val="219388288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664394528"/>
+        <c:axId val="219385888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,7 +6767,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664402208"/>
+        <c:crossAx val="219388288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4734,7 +6775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664402208"/>
+        <c:axId val="219388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,7 +6826,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664394528"/>
+        <c:crossAx val="219385888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9233,10 +11274,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D68547-5192-49F5-BAAE-3D3EF123E331}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B33248B-E9A5-4A04-ABDF-D57AE70227AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9271,10 +11312,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="차트 6">
+        <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6755C9-FF07-4529-8AB0-DCCEFBD30310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1819EE7-B10B-42F2-AFAA-7C2CE74DFD9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9298,21 +11339,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="차트 8">
+        <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9ACF88-05FC-41AC-B677-85CADF572E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165DD60D-A9DB-430F-AD8D-5170FA24F67D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9336,21 +11377,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="차트 10">
+        <xdr:cNvPr id="9" name="차트 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AA3E77-EB6A-4B32-AF39-06A7D30D9DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC594BB-0F75-49B6-93C4-5ADFE5DBA781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9374,21 +11415,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="차트 12">
+        <xdr:cNvPr id="11" name="차트 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AC4D2C-141F-48D8-95A6-B46FBBAB35F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256A5443-402D-43D2-8357-B16833D91020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9412,21 +11453,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="차트 14">
+        <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A4FE69-07BB-40BD-87AD-AD840EC368E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5AFCCF-D7CF-4A5F-B0E9-67A75000A880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9450,21 +11491,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="차트 16">
+        <xdr:cNvPr id="15" name="차트 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9B1CDA-7C7B-46D3-A20D-AB651AE6E8B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFF6078-D06C-4634-81DF-E8F32E42B2E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9488,21 +11529,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="차트 18">
+        <xdr:cNvPr id="17" name="차트 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C615EB8F-EDF4-42FC-A320-FD75836EE524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EC71AF-12CF-4795-B929-CBB5CA56E95B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9523,6 +11564,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9812,10 +11857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9860,22 +11905,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1045</v>
+        <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>4173</v>
+        <v>16000</v>
       </c>
       <c r="D3" s="3">
-        <v>5197</v>
+        <v>24100</v>
       </c>
       <c r="E3" s="3">
-        <v>10600</v>
+        <v>28900</v>
       </c>
       <c r="F3" s="3">
-        <v>28200</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>11600</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9883,22 +11928,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>953</v>
+        <v>6564</v>
       </c>
       <c r="C4" s="3">
-        <v>4633</v>
+        <v>13600</v>
       </c>
       <c r="D4" s="3">
-        <v>3813</v>
+        <v>23100</v>
       </c>
       <c r="E4" s="3">
-        <v>9706</v>
+        <v>30700</v>
       </c>
       <c r="F4" s="3">
-        <v>13300</v>
+        <v>34200</v>
       </c>
       <c r="G4" s="3">
-        <v>21200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9906,22 +11951,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>961</v>
+        <v>4491</v>
       </c>
       <c r="C5" s="3">
-        <v>2568</v>
+        <v>10600</v>
       </c>
       <c r="D5" s="3">
-        <v>3673</v>
+        <v>19300</v>
       </c>
       <c r="E5" s="3">
-        <v>13200</v>
+        <v>28500</v>
       </c>
       <c r="F5" s="3">
-        <v>11000</v>
+        <v>31800</v>
       </c>
       <c r="G5" s="3">
-        <v>15000</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9929,895 +11974,1447 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>969</v>
+        <v>5535</v>
       </c>
       <c r="C6" s="3">
-        <v>4079</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="3">
-        <v>3929</v>
+        <v>21000</v>
       </c>
       <c r="E6" s="3">
-        <v>11300</v>
+        <v>26100</v>
       </c>
       <c r="F6" s="3">
-        <v>10500</v>
+        <v>29000</v>
       </c>
       <c r="G6" s="3">
-        <v>20900</v>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5305</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11100</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F7" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G7" s="3">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6736</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30600</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>26300</v>
-      </c>
-      <c r="C11" s="3">
-        <v>22600</v>
-      </c>
-      <c r="D11" s="3">
-        <v>41600</v>
-      </c>
-      <c r="E11" s="3">
-        <v>83500</v>
-      </c>
-      <c r="F11" s="3">
-        <v>160000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>256000</v>
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5505</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>12100</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20600</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>81700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>147000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>184000</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12600</v>
-      </c>
-      <c r="C13" s="3">
-        <v>19300</v>
-      </c>
-      <c r="D13" s="3">
-        <v>41200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>81700</v>
-      </c>
-      <c r="F13" s="3">
-        <v>151000</v>
-      </c>
-      <c r="G13" s="3">
-        <v>194000</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>14400</v>
+        <v>4253</v>
       </c>
       <c r="C14" s="3">
-        <v>23400</v>
+        <v>8078</v>
       </c>
       <c r="D14" s="3">
-        <v>46500</v>
+        <v>16600</v>
       </c>
       <c r="E14" s="3">
-        <v>81300</v>
+        <v>33800</v>
       </c>
       <c r="F14" s="3">
-        <v>150000</v>
+        <v>263000</v>
       </c>
       <c r="G14" s="3">
-        <v>172000</v>
+        <v>369000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3979</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7992</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>199000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3993</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7947</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F16" s="3">
+        <v>217000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>271000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4230</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7416</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>211000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>273000</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1">
-        <v>32</v>
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3419</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7956</v>
+      </c>
+      <c r="D18" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>211000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>274000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
-        <v>2938</v>
+        <v>4003</v>
       </c>
       <c r="C19" s="3">
-        <v>3540</v>
+        <v>7393</v>
       </c>
       <c r="D19" s="3">
-        <v>3696</v>
+        <v>15900</v>
       </c>
       <c r="E19" s="3">
-        <v>3560</v>
+        <v>109000</v>
       </c>
       <c r="F19" s="3">
-        <v>3674</v>
+        <v>174000</v>
       </c>
       <c r="G19" s="3">
-        <v>4099</v>
+        <v>244000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7532</v>
+      </c>
+      <c r="D20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>179000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>238000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
-        <v>7353</v>
-      </c>
-      <c r="C20" s="3">
-        <v>12800</v>
-      </c>
-      <c r="D20" s="3">
-        <v>16500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3727</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3593</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2836</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3207</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3366</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3604</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3804</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="3">
-        <v>3047</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3424</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3606</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3740</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3942</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4469</v>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>11300</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F25" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G25" s="3">
+        <v>20700</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1">
-        <v>32</v>
+      <c r="B26" s="3">
+        <v>7876</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="D26" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>18100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>364000</v>
+        <v>7314</v>
       </c>
       <c r="C27" s="3">
-        <v>466000</v>
+        <v>10200</v>
       </c>
       <c r="D27" s="3">
-        <v>572000</v>
+        <v>12300</v>
       </c>
       <c r="E27" s="3">
-        <v>599000</v>
+        <v>12100</v>
       </c>
       <c r="F27" s="3">
-        <v>648000</v>
+        <v>12400</v>
       </c>
       <c r="G27" s="3">
-        <v>188000</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" s="3">
-        <v>117000</v>
+        <v>7366</v>
       </c>
       <c r="C28" s="3">
-        <v>194000</v>
+        <v>10600</v>
       </c>
       <c r="D28" s="3">
-        <v>285000</v>
+        <v>13400</v>
       </c>
       <c r="E28" s="3">
-        <v>361000</v>
+        <v>12400</v>
       </c>
       <c r="F28" s="3">
-        <v>438000</v>
+        <v>12900</v>
       </c>
       <c r="G28" s="3">
-        <v>478000</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3">
-        <v>138000</v>
+        <v>7013</v>
       </c>
       <c r="C29" s="3">
-        <v>162000</v>
+        <v>11000</v>
       </c>
       <c r="D29" s="3">
-        <v>184000</v>
+        <v>12600</v>
       </c>
       <c r="E29" s="3">
-        <v>193000</v>
+        <v>12200</v>
       </c>
       <c r="F29" s="3">
-        <v>185000</v>
+        <v>12100</v>
       </c>
       <c r="G29" s="3">
-        <v>117000</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3">
-        <v>121000</v>
+        <v>8325</v>
       </c>
       <c r="C30" s="3">
-        <v>211000</v>
+        <v>9022</v>
       </c>
       <c r="D30" s="3">
-        <v>308000</v>
+        <v>10700</v>
       </c>
       <c r="E30" s="3">
-        <v>431000</v>
+        <v>12400</v>
       </c>
       <c r="F30" s="3">
-        <v>410000</v>
+        <v>11700</v>
       </c>
       <c r="G30" s="3">
-        <v>158000</v>
+        <v>13400</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6564</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8605</v>
+      </c>
+      <c r="D31" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E31" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F31" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G31" s="3">
+        <v>12900</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1">
-        <v>32</v>
-      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="3">
-        <v>3459</v>
-      </c>
-      <c r="C35" s="3">
-        <v>5512</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8747</v>
-      </c>
-      <c r="E35" s="3">
-        <v>9651</v>
-      </c>
-      <c r="F35" s="3">
-        <v>9295</v>
-      </c>
-      <c r="G35" s="3">
-        <v>20700</v>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3">
-        <v>3346</v>
+        <v>386000</v>
       </c>
       <c r="C36" s="3">
-        <v>4242</v>
+        <v>485000</v>
       </c>
       <c r="D36" s="3">
-        <v>7447</v>
+        <v>572000</v>
       </c>
       <c r="E36" s="3">
-        <v>7634</v>
+        <v>620000</v>
       </c>
       <c r="F36" s="3">
-        <v>10900</v>
+        <v>618000</v>
       </c>
       <c r="G36" s="3">
-        <v>10800</v>
+        <v>631000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3">
-        <v>3700</v>
+        <v>113000</v>
       </c>
       <c r="C37" s="3">
-        <v>3527</v>
+        <v>199000</v>
       </c>
       <c r="D37" s="3">
-        <v>7613</v>
+        <v>286000</v>
       </c>
       <c r="E37" s="3">
-        <v>9448</v>
+        <v>358000</v>
       </c>
       <c r="F37" s="3">
-        <v>9542</v>
+        <v>403000</v>
       </c>
       <c r="G37" s="3">
-        <v>10400</v>
+        <v>452000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3">
+        <v>128000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>156000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E38" s="3">
+        <v>201000</v>
+      </c>
+      <c r="F38" s="3">
+        <v>175000</v>
+      </c>
+      <c r="G38" s="3">
+        <v>157000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3">
-        <v>4087</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4518</v>
-      </c>
-      <c r="D38" s="3">
-        <v>6180</v>
-      </c>
-      <c r="E38" s="3">
-        <v>14800</v>
-      </c>
-      <c r="F38" s="3">
-        <v>8770</v>
-      </c>
-      <c r="G38" s="3">
-        <v>20300</v>
+      <c r="B39" s="3">
+        <v>137000</v>
+      </c>
+      <c r="C39" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E39" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F39" s="3">
+        <v>185000</v>
+      </c>
+      <c r="G39" s="3">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>135000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>164000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E40" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F40" s="3">
+        <v>180000</v>
+      </c>
+      <c r="G40" s="3">
+        <v>167000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3">
+        <v>115000</v>
+      </c>
+      <c r="C41" s="3">
+        <v>161000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>214000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>233000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>276000</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1">
-        <v>16</v>
-      </c>
-      <c r="G42" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3">
-        <v>152000</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3">
+        <v>103000</v>
+      </c>
+      <c r="C42" s="3">
+        <v>156000</v>
+      </c>
+      <c r="D42" s="3">
         <v>180000</v>
       </c>
-      <c r="D43" s="3">
-        <v>271000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>281000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>767000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3">
-        <v>121000</v>
-      </c>
-      <c r="C44" s="3">
-        <v>139000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>254000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>451000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>255000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>701000</v>
+      <c r="E42" s="3">
+        <v>237000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>216000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>243000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3">
-        <v>91300</v>
-      </c>
-      <c r="C45" s="3">
-        <v>105000</v>
-      </c>
-      <c r="D45" s="3">
-        <v>334000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>304000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>309000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>367000</v>
-      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
         <v>4</v>
       </c>
-      <c r="B46" s="3">
-        <v>87400</v>
-      </c>
-      <c r="C46" s="3">
-        <v>152000</v>
-      </c>
-      <c r="D46" s="3">
-        <v>265000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>242000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>267000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>646000</v>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3605</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5801</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8258</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9214</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6279</v>
+      </c>
+      <c r="G47" s="3">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2645</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4320</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8846</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8258</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5803</v>
+      </c>
+      <c r="G48" s="3">
+        <v>11200</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1777</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2592</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5375</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7742</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8414</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11400</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="1">
-        <v>8</v>
-      </c>
-      <c r="F50" s="1">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1">
-        <v>32</v>
+      <c r="B50" s="3">
+        <v>2235</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3878</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8031</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9525</v>
+      </c>
+      <c r="F50" s="3">
+        <v>8808</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8395</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" s="3">
-        <v>10600</v>
+        <v>2752</v>
       </c>
       <c r="C51" s="3">
-        <v>12700</v>
+        <v>3806</v>
       </c>
       <c r="D51" s="3">
-        <v>13800</v>
+        <v>7353</v>
       </c>
       <c r="E51" s="3">
-        <v>14100</v>
+        <v>9525</v>
       </c>
       <c r="F51" s="3">
-        <v>14700</v>
+        <v>8502</v>
       </c>
       <c r="G51" s="3">
-        <v>14800</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B52" s="3">
-        <v>7314</v>
+        <v>2797</v>
       </c>
       <c r="C52" s="3">
-        <v>9929</v>
+        <v>3075</v>
       </c>
       <c r="D52" s="3">
-        <v>11000</v>
+        <v>5152</v>
       </c>
       <c r="E52" s="3">
-        <v>13200</v>
+        <v>8445</v>
       </c>
       <c r="F52" s="3">
-        <v>14400</v>
+        <v>7553</v>
       </c>
       <c r="G52" s="3">
-        <v>14800</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B53" s="3">
-        <v>7275</v>
+        <v>2708</v>
       </c>
       <c r="C53" s="3">
-        <v>9051</v>
+        <v>2909</v>
       </c>
       <c r="D53" s="3">
-        <v>9929</v>
+        <v>6131</v>
       </c>
       <c r="E53" s="3">
-        <v>10600</v>
+        <v>7930</v>
       </c>
       <c r="F53" s="3">
-        <v>12100</v>
+        <v>8262</v>
       </c>
       <c r="G53" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="3">
-        <v>6872</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9102</v>
-      </c>
-      <c r="D54" s="3">
-        <v>11700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13900</v>
-      </c>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1">
+      <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>4</v>
-      </c>
-      <c r="E58" s="1">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1">
-        <v>16</v>
-      </c>
-      <c r="G58" s="1">
-        <v>32</v>
+      <c r="B58" s="3">
+        <v>120000</v>
+      </c>
+      <c r="C58" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>301000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>273000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>354000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" s="3">
-        <v>309000</v>
+        <v>88600</v>
       </c>
       <c r="C59" s="3">
-        <v>379000</v>
+        <v>128000</v>
       </c>
       <c r="D59" s="3">
-        <v>434000</v>
+        <v>268000</v>
       </c>
       <c r="E59" s="3">
-        <v>436000</v>
+        <v>271000</v>
       </c>
       <c r="F59" s="3">
-        <v>467000</v>
+        <v>260000</v>
       </c>
       <c r="G59" s="3">
-        <v>482000</v>
+        <v>333000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>116000</v>
+        <v>82500</v>
       </c>
       <c r="C60" s="3">
-        <v>197000</v>
+        <v>112000</v>
       </c>
       <c r="D60" s="3">
-        <v>261000</v>
+        <v>244000</v>
       </c>
       <c r="E60" s="3">
-        <v>327000</v>
+        <v>282000</v>
       </c>
       <c r="F60" s="3">
-        <v>419000</v>
+        <v>282000</v>
       </c>
       <c r="G60" s="3">
-        <v>457000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" s="3">
-        <v>131000</v>
+        <v>83400</v>
       </c>
       <c r="C61" s="3">
-        <v>163000</v>
+        <v>114000</v>
       </c>
       <c r="D61" s="3">
-        <v>183000</v>
+        <v>259000</v>
       </c>
       <c r="E61" s="3">
-        <v>221000</v>
+        <v>306000</v>
       </c>
       <c r="F61" s="3">
-        <v>216000</v>
+        <v>256000</v>
       </c>
       <c r="G61" s="3">
-        <v>182000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3">
+        <v>84500</v>
+      </c>
+      <c r="C62" s="3">
+        <v>128000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>295000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>297000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>403000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>90500</v>
+      </c>
+      <c r="C63" s="3">
+        <v>115000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>247000</v>
+      </c>
+      <c r="F63" s="3">
+        <v>262000</v>
+      </c>
+      <c r="G63" s="3">
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3">
+        <v>88800</v>
+      </c>
+      <c r="C64" s="3">
+        <v>81600</v>
+      </c>
+      <c r="D64" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F64" s="3">
+        <v>255000</v>
+      </c>
+      <c r="G64" s="3">
+        <v>266000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
         <v>4</v>
       </c>
-      <c r="B62" s="3">
-        <v>152000</v>
-      </c>
-      <c r="C62" s="3">
-        <v>177000</v>
-      </c>
-      <c r="D62" s="3">
-        <v>278000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>364000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>434000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>258000</v>
+      <c r="E68" s="1">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1">
+        <v>16</v>
+      </c>
+      <c r="G68" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>8982</v>
+      </c>
+      <c r="C69" s="3">
+        <v>11800</v>
+      </c>
+      <c r="D69" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E69" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F69" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G69" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6826</v>
+      </c>
+      <c r="C70" s="3">
+        <v>9022</v>
+      </c>
+      <c r="D70" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G70" s="3">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5953</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7340</v>
+      </c>
+      <c r="D71" s="3">
+        <v>9287</v>
+      </c>
+      <c r="E71" s="3">
+        <v>9340</v>
+      </c>
+      <c r="F71" s="3">
+        <v>9443</v>
+      </c>
+      <c r="G71" s="3">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5851</v>
+      </c>
+      <c r="C72" s="3">
+        <v>7728</v>
+      </c>
+      <c r="D72" s="3">
+        <v>8623</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9383</v>
+      </c>
+      <c r="F72" s="3">
+        <v>9383</v>
+      </c>
+      <c r="G72" s="3">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5657</v>
+      </c>
+      <c r="C73" s="3">
+        <v>7340</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8827</v>
+      </c>
+      <c r="E73" s="3">
+        <v>9558</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9351</v>
+      </c>
+      <c r="G73" s="3">
+        <v>8664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5785</v>
+      </c>
+      <c r="C74" s="3">
+        <v>7393</v>
+      </c>
+      <c r="D74" s="3">
+        <v>8175</v>
+      </c>
+      <c r="E74" s="3">
+        <v>9340</v>
+      </c>
+      <c r="F74" s="3">
+        <v>9810</v>
+      </c>
+      <c r="G74" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5197</v>
+      </c>
+      <c r="C75" s="3">
+        <v>7062</v>
+      </c>
+      <c r="D75" s="3">
+        <v>8923</v>
+      </c>
+      <c r="E75" s="3">
+        <v>9362</v>
+      </c>
+      <c r="F75" s="3">
+        <v>9346</v>
+      </c>
+      <c r="G75" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="3">
+        <v>331000</v>
+      </c>
+      <c r="C80" s="3">
+        <v>428000</v>
+      </c>
+      <c r="D80" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>545000</v>
+      </c>
+      <c r="F80" s="3">
+        <v>570000</v>
+      </c>
+      <c r="G80" s="3">
+        <v>522000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="3">
+        <v>110000</v>
+      </c>
+      <c r="C81" s="3">
+        <v>204000</v>
+      </c>
+      <c r="D81" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>392000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
+        <v>138000</v>
+      </c>
+      <c r="C82" s="3">
+        <v>155000</v>
+      </c>
+      <c r="D82" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E82" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F82" s="3">
+        <v>201000</v>
+      </c>
+      <c r="G82" s="3">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3">
+        <v>118000</v>
+      </c>
+      <c r="C83" s="3">
+        <v>185000</v>
+      </c>
+      <c r="D83" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3">
+        <v>122000</v>
+      </c>
+      <c r="C84" s="3">
+        <v>172000</v>
+      </c>
+      <c r="D84" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E84" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F84" s="3">
+        <v>182000</v>
+      </c>
+      <c r="G84" s="3">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3">
+        <v>121000</v>
+      </c>
+      <c r="C85" s="3">
+        <v>166000</v>
+      </c>
+      <c r="D85" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F85" s="3">
+        <v>241000</v>
+      </c>
+      <c r="G85" s="3">
+        <v>283000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="3">
+        <v>111000</v>
+      </c>
+      <c r="C86" s="3">
+        <v>159000</v>
+      </c>
+      <c r="D86" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E86" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F86" s="3">
+        <v>213000</v>
+      </c>
+      <c r="G86" s="3">
+        <v>237000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B78:G78"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B45:G45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rfuse/Archive/로컬_개별실험_v3/merged_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/merged_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/Archive/로컬_개별실험_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehddu\OneDrive\ドキュメント\GitHub\ldy\rfuse\Archive\로컬_개별실험_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_4CE8C6B3A46EE8345CD89431F0DADAF4DC07EFE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A0F943-5B33-444C-B052-E2E57FD151D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379B98C-D444-4267-9D9E-EAA76A3F6753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
+              <c:f>Sheet2!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -238,7 +238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -265,34 +265,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:f>Sheet2!$B$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8462</c:v>
+                  <c:v>4345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16000</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24100</c:v>
+                  <c:v>16700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28900</c:v>
+                  <c:v>159000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31600</c:v>
+                  <c:v>264000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32300</c:v>
+                  <c:v>366000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E7F-4761-A079-33C891B0DA88}"/>
+              <c16:uniqueId val="{00000000-82A6-4DEA-AB6E-7BF5D13C8A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -301,7 +301,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$4</c:f>
+              <c:f>Sheet2!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +322,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -349,34 +349,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:f>Sheet2!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6564</c:v>
+                  <c:v>3564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13600</c:v>
+                  <c:v>8049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23100</c:v>
+                  <c:v>16600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30700</c:v>
+                  <c:v>31800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34200</c:v>
+                  <c:v>193000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34100</c:v>
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E7F-4761-A079-33C891B0DA88}"/>
+              <c16:uniqueId val="{00000001-82A6-4DEA-AB6E-7BF5D13C8A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -385,7 +385,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$5</c:f>
+              <c:f>Sheet2!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -406,7 +406,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -433,34 +433,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:f>Sheet2!$B$16:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4491</c:v>
+                  <c:v>4127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10600</c:v>
+                  <c:v>7751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19300</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28500</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31800</c:v>
+                  <c:v>215000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25500</c:v>
+                  <c:v>269000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E7F-4761-A079-33C891B0DA88}"/>
+              <c16:uniqueId val="{00000002-82A6-4DEA-AB6E-7BF5D13C8A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -469,7 +469,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$6</c:f>
+              <c:f>Sheet2!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +490,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -517,34 +517,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:f>Sheet2!$B$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5535</c:v>
+                  <c:v>3793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12000</c:v>
+                  <c:v>8144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21000</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26100</c:v>
+                  <c:v>139000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29000</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24400</c:v>
+                  <c:v>273000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5E7F-4761-A079-33C891B0DA88}"/>
+              <c16:uniqueId val="{00000003-82A6-4DEA-AB6E-7BF5D13C8A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -553,7 +553,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$7</c:f>
+              <c:f>Sheet2!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -574,7 +574,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -601,34 +601,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$7:$G$7</c:f>
+              <c:f>Sheet2!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5305</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11100</c:v>
+                  <c:v>7723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20200</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25500</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29200</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27600</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5E7F-4761-A079-33C891B0DA88}"/>
+              <c16:uniqueId val="{00000004-82A6-4DEA-AB6E-7BF5D13C8A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -637,7 +637,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$8</c:f>
+              <c:f>Sheet2!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,7 +658,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet2!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -685,120 +685,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$8:$G$8</c:f>
+              <c:f>Sheet2!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6736</c:v>
+                  <c:v>6558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12200</c:v>
+                  <c:v>7813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18500</c:v>
+                  <c:v>15700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25500</c:v>
+                  <c:v>109000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29200</c:v>
+                  <c:v>173000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30600</c:v>
+                  <c:v>247000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5E7F-4761-A079-33C891B0DA88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5505</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5E7F-4761-A079-33C891B0DA88}"/>
+              <c16:uniqueId val="{00000005-82A6-4DEA-AB6E-7BF5D13C8A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -812,11 +726,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1294624"/>
-        <c:axId val="1296544"/>
+        <c:axId val="2127094304"/>
+        <c:axId val="2127094784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1294624"/>
+        <c:axId val="2127094304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +773,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296544"/>
+        <c:crossAx val="2127094784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -867,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1296544"/>
+        <c:axId val="2127094784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +832,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1294624"/>
+        <c:crossAx val="2127094304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,13 +878,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1061,7 +968,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$14</c:f>
+              <c:f>Sheet2!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1082,7 +989,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1109,34 +1016,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$14:$G$14</c:f>
+              <c:f>Sheet2!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4253</c:v>
+                  <c:v>8462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8078</c:v>
+                  <c:v>15600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16600</c:v>
+                  <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33800</c:v>
+                  <c:v>28200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263000</c:v>
+                  <c:v>30700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>369000</c:v>
+                  <c:v>24300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2B5-4067-BFC0-2DB572BD3C34}"/>
+              <c16:uniqueId val="{00000000-915C-47A2-9322-2B0B621FC2E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1145,7 +1052,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$15</c:f>
+              <c:f>Sheet2!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,7 +1073,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1193,34 +1100,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$15:$G$15</c:f>
+              <c:f>Sheet2!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3979</c:v>
+                  <c:v>6564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7992</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16500</c:v>
+                  <c:v>22400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31000</c:v>
+                  <c:v>29700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>199000</c:v>
+                  <c:v>32100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200000</c:v>
+                  <c:v>33100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2B5-4067-BFC0-2DB572BD3C34}"/>
+              <c16:uniqueId val="{00000001-915C-47A2-9322-2B0B621FC2E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1229,7 +1136,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$16</c:f>
+              <c:f>Sheet2!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1250,7 +1157,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1277,34 +1184,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$16:$G$16</c:f>
+              <c:f>Sheet2!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3993</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7947</c:v>
+                  <c:v>11200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16100</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31900</c:v>
+                  <c:v>26900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217000</c:v>
+                  <c:v>30100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>271000</c:v>
+                  <c:v>23700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D2B5-4067-BFC0-2DB572BD3C34}"/>
+              <c16:uniqueId val="{00000002-915C-47A2-9322-2B0B621FC2E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1313,7 +1220,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$17</c:f>
+              <c:f>Sheet2!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1334,7 +1241,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1361,34 +1268,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$17:$G$17</c:f>
+              <c:f>Sheet2!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4230</c:v>
+                  <c:v>5720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7416</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15900</c:v>
+                  <c:v>21800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137000</c:v>
+                  <c:v>28200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211000</c:v>
+                  <c:v>31100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273000</c:v>
+                  <c:v>24600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D2B5-4067-BFC0-2DB572BD3C34}"/>
+              <c16:uniqueId val="{00000003-915C-47A2-9322-2B0B621FC2E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1397,7 +1304,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$18</c:f>
+              <c:f>Sheet2!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1418,7 +1325,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1445,34 +1352,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$G$18</c:f>
+              <c:f>Sheet2!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3419</c:v>
+                  <c:v>5535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7956</c:v>
+                  <c:v>11600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16900</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27500</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211000</c:v>
+                  <c:v>30700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>274000</c:v>
+                  <c:v>24200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D2B5-4067-BFC0-2DB572BD3C34}"/>
+              <c16:uniqueId val="{00000004-915C-47A2-9322-2B0B621FC2E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1481,7 +1388,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$19</c:f>
+              <c:f>Sheet2!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1502,7 +1409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1529,120 +1436,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$19:$G$19</c:f>
+              <c:f>Sheet2!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4003</c:v>
+                  <c:v>6826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7393</c:v>
+                  <c:v>12700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15900</c:v>
+                  <c:v>18700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109000</c:v>
+                  <c:v>25700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174000</c:v>
+                  <c:v>31800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>244000</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D2B5-4067-BFC0-2DB572BD3C34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$13:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$20:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7532</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>179000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>238000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D2B5-4067-BFC0-2DB572BD3C34}"/>
+              <c16:uniqueId val="{00000005-915C-47A2-9322-2B0B621FC2E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1656,11 +1477,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74626784"/>
-        <c:axId val="74621024"/>
+        <c:axId val="2125608992"/>
+        <c:axId val="2125609472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74626784"/>
+        <c:axId val="2125608992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1524,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74621024"/>
+        <c:crossAx val="2125609472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74621024"/>
+        <c:axId val="2125609472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1583,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74626784"/>
+        <c:crossAx val="2125608992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,13 +1629,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1958,29 +1772,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11300</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16100</c:v>
+                  <c:v>17200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17400</c:v>
+                  <c:v>17700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20400</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21500</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20700</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD55-4235-AB0D-399BA10DA68D}"/>
+              <c16:uniqueId val="{00000000-F75B-4100-87A6-9570C87D2ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2042,29 +1856,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7876</c:v>
+                  <c:v>9061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11800</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15300</c:v>
+                  <c:v>15700</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD55-4235-AB0D-399BA10DA68D}"/>
+              <c16:uniqueId val="{00000001-F75B-4100-87A6-9570C87D2ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2126,29 +1940,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7314</c:v>
+                  <c:v>7876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10200</c:v>
+                  <c:v>9941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12300</c:v>
+                  <c:v>12200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12100</c:v>
+                  <c:v>13300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12400</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12100</c:v>
+                  <c:v>12200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD55-4235-AB0D-399BA10DA68D}"/>
+              <c16:uniqueId val="{00000002-F75B-4100-87A6-9570C87D2ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2210,29 +2024,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7366</c:v>
+                  <c:v>6564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10600</c:v>
+                  <c:v>8359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13400</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12900</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BD55-4235-AB0D-399BA10DA68D}"/>
+              <c16:uniqueId val="{00000003-F75B-4100-87A6-9570C87D2ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2294,29 +2108,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7013</c:v>
+                  <c:v>9941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11000</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12600</c:v>
+                  <c:v>15600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12200</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12100</c:v>
+                  <c:v>19600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12400</c:v>
+                  <c:v>17700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD55-4235-AB0D-399BA10DA68D}"/>
+              <c16:uniqueId val="{00000004-F75B-4100-87A6-9570C87D2ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2378,19 +2192,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8325</c:v>
+                  <c:v>8062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9022</c:v>
+                  <c:v>9394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10700</c:v>
+                  <c:v>10900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>11300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11700</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>13400</c:v>
@@ -2400,93 +2214,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BD55-4235-AB0D-399BA10DA68D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$24:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$31:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BD55-4235-AB0D-399BA10DA68D}"/>
+              <c16:uniqueId val="{00000005-F75B-4100-87A6-9570C87D2ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2500,11 +2228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1722910448"/>
-        <c:axId val="1722909008"/>
+        <c:axId val="140946384"/>
+        <c:axId val="140952624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1722910448"/>
+        <c:axId val="140946384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2275,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1722909008"/>
+        <c:crossAx val="140952624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1722909008"/>
+        <c:axId val="140952624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2334,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1722910448"/>
+        <c:crossAx val="140946384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,13 +2380,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2802,29 +2523,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>386000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>485000</c:v>
+                  <c:v>489000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>572000</c:v>
+                  <c:v>558000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>620000</c:v>
+                  <c:v>571000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>618000</c:v>
+                  <c:v>616000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>631000</c:v>
+                  <c:v>639000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2C7-497E-846F-7A2C70C1DD9B}"/>
+              <c16:uniqueId val="{00000000-FB36-4151-8122-B6EE361E4A1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2889,26 +2610,26 @@
                   <c:v>113000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199000</c:v>
+                  <c:v>209000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286000</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>358000</c:v>
+                  <c:v>356000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>403000</c:v>
+                  <c:v>397000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>452000</c:v>
+                  <c:v>461000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2C7-497E-846F-7A2C70C1DD9B}"/>
+              <c16:uniqueId val="{00000001-FB36-4151-8122-B6EE361E4A1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2970,29 +2691,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>128000</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156000</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>201000</c:v>
+                  <c:v>215000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175000</c:v>
+                  <c:v>183000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B2C7-497E-846F-7A2C70C1DD9B}"/>
+              <c16:uniqueId val="{00000002-FB36-4151-8122-B6EE361E4A1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3054,29 +2775,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>137000</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180000</c:v>
+                  <c:v>149000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197000</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210000</c:v>
+                  <c:v>191000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162000</c:v>
+                  <c:v>221000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B2C7-497E-846F-7A2C70C1DD9B}"/>
+              <c16:uniqueId val="{00000003-FB36-4151-8122-B6EE361E4A1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3138,29 +2859,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>135000</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164000</c:v>
+                  <c:v>261000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199000</c:v>
+                  <c:v>308000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202000</c:v>
+                  <c:v>398000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180000</c:v>
+                  <c:v>439000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167000</c:v>
+                  <c:v>336000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B2C7-497E-846F-7A2C70C1DD9B}"/>
+              <c16:uniqueId val="{00000004-FB36-4151-8122-B6EE361E4A1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3222,115 +2943,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>115000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177000</c:v>
+                  <c:v>207000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>214000</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233000</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276000</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B2C7-497E-846F-7A2C70C1DD9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$35:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$42:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>103000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>156000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>237000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>243000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B2C7-497E-846F-7A2C70C1DD9B}"/>
+              <c16:uniqueId val="{00000005-FB36-4151-8122-B6EE361E4A1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3344,11 +2979,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="6415136"/>
-        <c:axId val="6417056"/>
+        <c:axId val="142783952"/>
+        <c:axId val="142789232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6415136"/>
+        <c:axId val="142783952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3026,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6417056"/>
+        <c:crossAx val="142789232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3399,7 +3034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6417056"/>
+        <c:axId val="142789232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,7 +3085,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6415136"/>
+        <c:crossAx val="142783952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,13 +3131,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3646,29 +3274,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3605</c:v>
+                  <c:v>3447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5801</c:v>
+                  <c:v>5851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8258</c:v>
+                  <c:v>7757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9214</c:v>
+                  <c:v>7816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6279</c:v>
+                  <c:v>8102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8436</c:v>
+                  <c:v>7913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+              <c16:uniqueId val="{00000000-3581-44AE-9281-CE44EB486810}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3730,29 +3358,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2645</c:v>
+                  <c:v>2925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4320</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8846</c:v>
+                  <c:v>8569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8258</c:v>
+                  <c:v>8742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5803</c:v>
+                  <c:v>8003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11200</c:v>
+                  <c:v>11700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+              <c16:uniqueId val="{00000001-3581-44AE-9281-CE44EB486810}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3814,29 +3442,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1777</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2592</c:v>
+                  <c:v>3703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5375</c:v>
+                  <c:v>8094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7742</c:v>
+                  <c:v>8799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8414</c:v>
+                  <c:v>7827</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11400</c:v>
+                  <c:v>8212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+              <c16:uniqueId val="{00000002-3581-44AE-9281-CE44EB486810}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3898,29 +3526,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2235</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3878</c:v>
+                  <c:v>3611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8031</c:v>
+                  <c:v>7757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9525</c:v>
+                  <c:v>8299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8808</c:v>
+                  <c:v>7922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8395</c:v>
+                  <c:v>7460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+              <c16:uniqueId val="{00000003-3581-44AE-9281-CE44EB486810}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3982,29 +3610,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2752</c:v>
+                  <c:v>2432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3806</c:v>
+                  <c:v>3953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7353</c:v>
+                  <c:v>7641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9525</c:v>
+                  <c:v>8376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8502</c:v>
+                  <c:v>8591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11100</c:v>
+                  <c:v>9840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+              <c16:uniqueId val="{00000004-3581-44AE-9281-CE44EB486810}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4066,115 +3694,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2797</c:v>
+                  <c:v>2461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3075</c:v>
+                  <c:v>3103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5152</c:v>
+                  <c:v>4995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8445</c:v>
+                  <c:v>8560</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7553</c:v>
+                  <c:v>9503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19400</c:v>
+                  <c:v>6811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-07C9-49AD-9FC3-7ED7BDF680C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$46:$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$53:$G$53</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2708</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6131</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7930</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-07C9-49AD-9FC3-7ED7BDF680C6}"/>
+              <c16:uniqueId val="{00000005-3581-44AE-9281-CE44EB486810}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4188,11 +3730,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="209849536"/>
-        <c:axId val="209855296"/>
+        <c:axId val="142778672"/>
+        <c:axId val="142779152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209849536"/>
+        <c:axId val="142778672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,7 +3777,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209855296"/>
+        <c:crossAx val="142779152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4243,7 +3785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209855296"/>
+        <c:axId val="142779152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4294,7 +3836,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209849536"/>
+        <c:crossAx val="142778672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4340,13 +3882,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4490,29 +4025,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>120000</c:v>
+                  <c:v>116000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182000</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286000</c:v>
+                  <c:v>322000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301000</c:v>
+                  <c:v>311000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273000</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>354000</c:v>
+                  <c:v>304000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE6A-451E-ADE3-858019AE0484}"/>
+              <c16:uniqueId val="{00000000-8AB6-4382-944D-7D64CE260666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4574,29 +4109,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>88600</c:v>
+                  <c:v>94400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128000</c:v>
+                  <c:v>135000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268000</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>271000</c:v>
+                  <c:v>281000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260000</c:v>
+                  <c:v>266000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>333000</c:v>
+                  <c:v>293000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE6A-451E-ADE3-858019AE0484}"/>
+              <c16:uniqueId val="{00000001-8AB6-4382-944D-7D64CE260666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4658,29 +4193,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82500</c:v>
+                  <c:v>85600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112000</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244000</c:v>
+                  <c:v>272000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282000</c:v>
+                  <c:v>293000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>282000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>342000</c:v>
+                  <c:v>406000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE6A-451E-ADE3-858019AE0484}"/>
+              <c16:uniqueId val="{00000002-8AB6-4382-944D-7D64CE260666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4742,29 +4277,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>83400</c:v>
+                  <c:v>88300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114000</c:v>
+                  <c:v>103000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>259000</c:v>
+                  <c:v>253000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306000</c:v>
+                  <c:v>329000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256000</c:v>
+                  <c:v>277000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>380000</c:v>
+                  <c:v>231000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE6A-451E-ADE3-858019AE0484}"/>
+              <c16:uniqueId val="{00000003-8AB6-4382-944D-7D64CE260666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4826,29 +4361,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>84500</c:v>
+                  <c:v>79900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128000</c:v>
+                  <c:v>113000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295000</c:v>
+                  <c:v>294000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>297000</c:v>
+                  <c:v>262000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>403000</c:v>
+                  <c:v>354000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE6A-451E-ADE3-858019AE0484}"/>
+              <c16:uniqueId val="{00000004-8AB6-4382-944D-7D64CE260666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4910,115 +4445,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90500</c:v>
+                  <c:v>88800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115000</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>247000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262000</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AE6A-451E-ADE3-858019AE0484}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$57:$G$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$64:$G$64</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>88800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>266000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-AE6A-451E-ADE3-858019AE0484}"/>
+              <c16:uniqueId val="{00000005-8AB6-4382-944D-7D64CE260666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5032,11 +4481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="152339056"/>
-        <c:axId val="152340016"/>
+        <c:axId val="142780592"/>
+        <c:axId val="142782032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152339056"/>
+        <c:axId val="142780592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5079,7 +4528,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152340016"/>
+        <c:crossAx val="142782032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5087,7 +4536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152340016"/>
+        <c:axId val="142782032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,7 +4587,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152339056"/>
+        <c:crossAx val="142780592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5184,13 +4633,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5334,29 +4776,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8982</c:v>
+                  <c:v>9752</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11800</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>12600</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>12000</c:v>
+                  <c:v>13500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13800</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13800</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1702-4224-ABA3-89ED7FBDE29A}"/>
+              <c16:uniqueId val="{00000000-1FAF-4581-BA8C-875634C32D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5418,29 +4860,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6826</c:v>
+                  <c:v>6243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9022</c:v>
+                  <c:v>9266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11400</c:v>
+                  <c:v>11200</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12600</c:v>
+                  <c:v>12700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12800</c:v>
+                  <c:v>12900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1702-4224-ABA3-89ED7FBDE29A}"/>
+              <c16:uniqueId val="{00000001-1FAF-4581-BA8C-875634C32D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5502,29 +4944,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5953</c:v>
+                  <c:v>5505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7340</c:v>
+                  <c:v>7968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9287</c:v>
+                  <c:v>8175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9340</c:v>
+                  <c:v>9626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9443</c:v>
+                  <c:v>9147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8863</c:v>
+                  <c:v>8818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1702-4224-ABA3-89ED7FBDE29A}"/>
+              <c16:uniqueId val="{00000002-1FAF-4581-BA8C-875634C32D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5586,29 +5028,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5851</c:v>
+                  <c:v>4946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7728</c:v>
+                  <c:v>6023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8623</c:v>
+                  <c:v>8943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9383</c:v>
+                  <c:v>9626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9383</c:v>
+                  <c:v>8865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8735</c:v>
+                  <c:v>9999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1702-4224-ABA3-89ED7FBDE29A}"/>
+              <c16:uniqueId val="{00000003-1FAF-4581-BA8C-875634C32D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5670,29 +5112,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5657</c:v>
+                  <c:v>6872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7340</c:v>
+                  <c:v>8789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8827</c:v>
+                  <c:v>11300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9558</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9351</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8664</c:v>
+                  <c:v>12700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1702-4224-ABA3-89ED7FBDE29A}"/>
+              <c16:uniqueId val="{00000004-1FAF-4581-BA8C-875634C32D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5754,115 +5196,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5785</c:v>
+                  <c:v>6168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7393</c:v>
+                  <c:v>7420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8175</c:v>
+                  <c:v>8143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9340</c:v>
+                  <c:v>9706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9810</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10300</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1702-4224-ABA3-89ED7FBDE29A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$75</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$68:$G$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$75:$G$75</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5197</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7062</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8923</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1702-4224-ABA3-89ED7FBDE29A}"/>
+              <c16:uniqueId val="{00000005-1FAF-4581-BA8C-875634C32D0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5876,11 +5232,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="68611776"/>
-        <c:axId val="68613216"/>
+        <c:axId val="174150432"/>
+        <c:axId val="174150912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68611776"/>
+        <c:axId val="174150432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5923,7 +5279,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68613216"/>
+        <c:crossAx val="174150912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5931,7 +5287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68613216"/>
+        <c:axId val="174150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5982,7 +5338,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68611776"/>
+        <c:crossAx val="174150432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6178,29 +5534,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>331000</c:v>
+                  <c:v>349000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>428000</c:v>
+                  <c:v>417000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500000</c:v>
+                  <c:v>502000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>545000</c:v>
+                  <c:v>547000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570000</c:v>
+                  <c:v>581000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522000</c:v>
+                  <c:v>497000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7130-45C1-B6A6-D99E0819612A}"/>
+              <c16:uniqueId val="{00000000-5BF0-40C4-BF68-E71B57E002DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6262,29 +5618,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>110000</c:v>
+                  <c:v>113000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204000</c:v>
+                  <c:v>179000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274000</c:v>
+                  <c:v>275000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>392000</c:v>
+                  <c:v>395000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>392000</c:v>
+                  <c:v>402000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7130-45C1-B6A6-D99E0819612A}"/>
+              <c16:uniqueId val="{00000001-5BF0-40C4-BF68-E71B57E002DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6346,29 +5702,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>138000</c:v>
+                  <c:v>122000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155000</c:v>
+                  <c:v>171000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204000</c:v>
+                  <c:v>199000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215000</c:v>
+                  <c:v>224000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201000</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170000</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7130-45C1-B6A6-D99E0819612A}"/>
+              <c16:uniqueId val="{00000002-5BF0-40C4-BF68-E71B57E002DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6430,29 +5786,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>118000</c:v>
+                  <c:v>113000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>185000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>205000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>218000</c:v>
+                  <c:v>217000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181000</c:v>
+                  <c:v>203000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162000</c:v>
+                  <c:v>226000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7130-45C1-B6A6-D99E0819612A}"/>
+              <c16:uniqueId val="{00000003-5BF0-40C4-BF68-E71B57E002DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6514,29 +5870,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>122000</c:v>
+                  <c:v>161000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212000</c:v>
+                  <c:v>306000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>218000</c:v>
+                  <c:v>394000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182000</c:v>
+                  <c:v>458000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161000</c:v>
+                  <c:v>368000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7130-45C1-B6A6-D99E0819612A}"/>
+              <c16:uniqueId val="{00000004-5BF0-40C4-BF68-E71B57E002DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6598,115 +5954,29 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166000</c:v>
+                  <c:v>164000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188000</c:v>
+                  <c:v>209000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215000</c:v>
+                  <c:v>211000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241000</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>283000</c:v>
+                  <c:v>279000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7130-45C1-B6A6-D99E0819612A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$86</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rfuse_Ecore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$79:$G$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$86:$G$86</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>111000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>196000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>213000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>237000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7130-45C1-B6A6-D99E0819612A}"/>
+              <c16:uniqueId val="{00000005-5BF0-40C4-BF68-E71B57E002DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6720,11 +5990,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="219385888"/>
-        <c:axId val="219388288"/>
+        <c:axId val="138929136"/>
+        <c:axId val="138926256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219385888"/>
+        <c:axId val="138929136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,7 +6037,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219388288"/>
+        <c:crossAx val="138926256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6775,7 +6045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219388288"/>
+        <c:axId val="138926256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6826,7 +6096,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219385888"/>
+        <c:crossAx val="138929136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11261,23 +10531,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B33248B-E9A5-4A04-ABDF-D57AE70227AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7529836F-E5EE-49CA-9298-A75D4D094A0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11299,23 +10569,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4">
+        <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1819EE7-B10B-42F2-AFAA-7C2CE74DFD9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143D280F-DC3D-491A-8D18-8B5E814058F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11350,10 +10620,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="차트 6">
+        <xdr:cNvPr id="9" name="차트 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165DD60D-A9DB-430F-AD8D-5170FA24F67D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCFF248-546D-4269-94BB-6BC646C02DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11388,10 +10658,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="차트 8">
+        <xdr:cNvPr id="11" name="차트 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC594BB-0F75-49B6-93C4-5ADFE5DBA781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F284E6C0-7A2B-4A5A-9E93-A7F1B8B9B62A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11426,10 +10696,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="차트 10">
+        <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256A5443-402D-43D2-8357-B16833D91020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6BA31E-83D9-4233-B0F0-549B759DFEB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11464,10 +10734,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="차트 12">
+        <xdr:cNvPr id="15" name="차트 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5AFCCF-D7CF-4A5F-B0E9-67A75000A880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1358866B-C40C-4FBA-9CF5-096BFBD11EA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11502,10 +10772,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="차트 14">
+        <xdr:cNvPr id="17" name="차트 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFF6078-D06C-4634-81DF-E8F32E42B2E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82502E65-8931-428B-9841-C9B354DB629F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11540,10 +10810,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="차트 16">
+        <xdr:cNvPr id="19" name="차트 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EC71AF-12CF-4795-B929-CBB5CA56E95B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EC170A-B713-4EA1-B3D5-90002187EB2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11564,10 +10834,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11859,8 +11125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11908,19 +11174,19 @@
         <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="D3" s="3">
-        <v>24100</v>
+        <v>23400</v>
       </c>
       <c r="E3" s="3">
-        <v>28900</v>
+        <v>28200</v>
       </c>
       <c r="F3" s="3">
-        <v>31600</v>
+        <v>30700</v>
       </c>
       <c r="G3" s="3">
-        <v>32300</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11934,16 +11200,16 @@
         <v>13600</v>
       </c>
       <c r="D4" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="E4" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="F4" s="3">
-        <v>34200</v>
+        <v>32100</v>
       </c>
       <c r="G4" s="3">
-        <v>34100</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -11951,22 +11217,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>4491</v>
+        <v>5389</v>
       </c>
       <c r="C5" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="D5" s="3">
-        <v>19300</v>
+        <v>21000</v>
       </c>
       <c r="E5" s="3">
-        <v>28500</v>
+        <v>26900</v>
       </c>
       <c r="F5" s="3">
-        <v>31800</v>
+        <v>30100</v>
       </c>
       <c r="G5" s="3">
-        <v>25500</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -11974,22 +11240,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>5535</v>
+        <v>5720</v>
       </c>
       <c r="C6" s="3">
         <v>12000</v>
       </c>
       <c r="D6" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="E6" s="3">
-        <v>26100</v>
+        <v>28200</v>
       </c>
       <c r="F6" s="3">
-        <v>29000</v>
+        <v>31100</v>
       </c>
       <c r="G6" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -11997,22 +11263,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>5305</v>
+        <v>5535</v>
       </c>
       <c r="C7" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="D7" s="3">
-        <v>20200</v>
+        <v>22000</v>
       </c>
       <c r="E7" s="3">
-        <v>25500</v>
+        <v>28500</v>
       </c>
       <c r="F7" s="3">
-        <v>29200</v>
+        <v>30700</v>
       </c>
       <c r="G7" s="3">
-        <v>27600</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -12020,22 +11286,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>6736</v>
+        <v>6826</v>
       </c>
       <c r="C8" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="D8" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="E8" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="F8" s="3">
-        <v>29200</v>
+        <v>31800</v>
       </c>
       <c r="G8" s="3">
-        <v>30600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -12097,22 +11363,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>4253</v>
+        <v>4345</v>
       </c>
       <c r="C14" s="3">
-        <v>8078</v>
+        <v>10500</v>
       </c>
       <c r="D14" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E14" s="3">
-        <v>33800</v>
+        <v>159000</v>
       </c>
       <c r="F14" s="3">
-        <v>263000</v>
+        <v>264000</v>
       </c>
       <c r="G14" s="3">
-        <v>369000</v>
+        <v>366000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -12120,22 +11386,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>3979</v>
+        <v>3564</v>
       </c>
       <c r="C15" s="3">
-        <v>7992</v>
+        <v>8049</v>
       </c>
       <c r="D15" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="E15" s="3">
-        <v>31000</v>
+        <v>31800</v>
       </c>
       <c r="F15" s="3">
-        <v>199000</v>
+        <v>193000</v>
       </c>
       <c r="G15" s="3">
-        <v>200000</v>
+        <v>193000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -12143,22 +11409,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>3993</v>
+        <v>4127</v>
       </c>
       <c r="C16" s="3">
-        <v>7947</v>
+        <v>7751</v>
       </c>
       <c r="D16" s="3">
         <v>16100</v>
       </c>
       <c r="E16" s="3">
-        <v>31900</v>
+        <v>138000</v>
       </c>
       <c r="F16" s="3">
-        <v>217000</v>
+        <v>215000</v>
       </c>
       <c r="G16" s="3">
-        <v>271000</v>
+        <v>269000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -12166,19 +11432,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>4230</v>
+        <v>3793</v>
       </c>
       <c r="C17" s="3">
-        <v>7416</v>
+        <v>8144</v>
       </c>
       <c r="D17" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="E17" s="3">
-        <v>137000</v>
+        <v>139000</v>
       </c>
       <c r="F17" s="3">
-        <v>211000</v>
+        <v>216000</v>
       </c>
       <c r="G17" s="3">
         <v>273000</v>
@@ -12189,22 +11455,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>3419</v>
+        <v>4313</v>
       </c>
       <c r="C18" s="3">
-        <v>7956</v>
+        <v>7723</v>
       </c>
       <c r="D18" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="E18" s="3">
-        <v>27500</v>
+        <v>140000</v>
       </c>
       <c r="F18" s="3">
-        <v>211000</v>
+        <v>218000</v>
       </c>
       <c r="G18" s="3">
-        <v>274000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -12212,22 +11478,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="3">
-        <v>4003</v>
+        <v>6558</v>
       </c>
       <c r="C19" s="3">
-        <v>7393</v>
+        <v>7813</v>
       </c>
       <c r="D19" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="E19" s="3">
         <v>109000</v>
       </c>
       <c r="F19" s="3">
-        <v>174000</v>
+        <v>173000</v>
       </c>
       <c r="G19" s="3">
-        <v>244000</v>
+        <v>247000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -12289,22 +11555,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="3">
-        <v>11300</v>
+        <v>13800</v>
       </c>
       <c r="C25" s="3">
-        <v>16100</v>
+        <v>17200</v>
       </c>
       <c r="D25" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="E25" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="F25" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="G25" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -12312,22 +11578,22 @@
         <v>2</v>
       </c>
       <c r="B26" s="3">
-        <v>7876</v>
+        <v>9061</v>
       </c>
       <c r="C26" s="3">
-        <v>11800</v>
+        <v>12800</v>
       </c>
       <c r="D26" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="E26" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G26" s="3">
         <v>18300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>18100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -12335,22 +11601,22 @@
         <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>7314</v>
+        <v>7876</v>
       </c>
       <c r="C27" s="3">
-        <v>10200</v>
+        <v>9941</v>
       </c>
       <c r="D27" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E27" s="3">
-        <v>12100</v>
+        <v>13300</v>
       </c>
       <c r="F27" s="3">
-        <v>12400</v>
+        <v>13600</v>
       </c>
       <c r="G27" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -12358,22 +11624,22 @@
         <v>4</v>
       </c>
       <c r="B28" s="3">
-        <v>7366</v>
+        <v>6564</v>
       </c>
       <c r="C28" s="3">
-        <v>10600</v>
+        <v>8359</v>
       </c>
       <c r="D28" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="E28" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F28" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G28" s="3">
         <v>12400</v>
-      </c>
-      <c r="F28" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G28" s="3">
-        <v>12100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -12381,22 +11647,22 @@
         <v>5</v>
       </c>
       <c r="B29" s="3">
-        <v>7013</v>
+        <v>9941</v>
       </c>
       <c r="C29" s="3">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="D29" s="3">
-        <v>12600</v>
+        <v>15600</v>
       </c>
       <c r="E29" s="3">
-        <v>12200</v>
+        <v>17600</v>
       </c>
       <c r="F29" s="3">
-        <v>12100</v>
+        <v>19600</v>
       </c>
       <c r="G29" s="3">
-        <v>12400</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -12404,19 +11670,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="3">
-        <v>8325</v>
+        <v>8062</v>
       </c>
       <c r="C30" s="3">
-        <v>9022</v>
+        <v>9394</v>
       </c>
       <c r="D30" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E30" s="3">
-        <v>12400</v>
+        <v>11300</v>
       </c>
       <c r="F30" s="3">
-        <v>11700</v>
+        <v>12600</v>
       </c>
       <c r="G30" s="3">
         <v>13400</v>
@@ -12481,22 +11747,22 @@
         <v>1</v>
       </c>
       <c r="B36" s="3">
-        <v>386000</v>
+        <v>390000</v>
       </c>
       <c r="C36" s="3">
-        <v>485000</v>
+        <v>489000</v>
       </c>
       <c r="D36" s="3">
-        <v>572000</v>
+        <v>558000</v>
       </c>
       <c r="E36" s="3">
-        <v>620000</v>
+        <v>571000</v>
       </c>
       <c r="F36" s="3">
-        <v>618000</v>
+        <v>616000</v>
       </c>
       <c r="G36" s="3">
-        <v>631000</v>
+        <v>639000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -12507,19 +11773,19 @@
         <v>113000</v>
       </c>
       <c r="C37" s="3">
-        <v>199000</v>
+        <v>209000</v>
       </c>
       <c r="D37" s="3">
-        <v>286000</v>
+        <v>288000</v>
       </c>
       <c r="E37" s="3">
-        <v>358000</v>
+        <v>356000</v>
       </c>
       <c r="F37" s="3">
-        <v>403000</v>
+        <v>397000</v>
       </c>
       <c r="G37" s="3">
-        <v>452000</v>
+        <v>461000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -12527,22 +11793,22 @@
         <v>3</v>
       </c>
       <c r="B38" s="3">
-        <v>128000</v>
+        <v>114000</v>
       </c>
       <c r="C38" s="3">
-        <v>156000</v>
+        <v>172000</v>
       </c>
       <c r="D38" s="3">
-        <v>194000</v>
+        <v>200000</v>
       </c>
       <c r="E38" s="3">
-        <v>201000</v>
+        <v>215000</v>
       </c>
       <c r="F38" s="3">
-        <v>175000</v>
+        <v>183000</v>
       </c>
       <c r="G38" s="3">
-        <v>157000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -12550,22 +11816,22 @@
         <v>4</v>
       </c>
       <c r="B39" s="3">
-        <v>137000</v>
+        <v>112000</v>
       </c>
       <c r="C39" s="3">
-        <v>180000</v>
+        <v>149000</v>
       </c>
       <c r="D39" s="3">
-        <v>197000</v>
+        <v>192000</v>
       </c>
       <c r="E39" s="3">
-        <v>210000</v>
+        <v>191000</v>
       </c>
       <c r="F39" s="3">
-        <v>185000</v>
+        <v>190000</v>
       </c>
       <c r="G39" s="3">
-        <v>162000</v>
+        <v>221000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -12573,22 +11839,22 @@
         <v>5</v>
       </c>
       <c r="B40" s="3">
-        <v>135000</v>
+        <v>136000</v>
       </c>
       <c r="C40" s="3">
-        <v>164000</v>
+        <v>261000</v>
       </c>
       <c r="D40" s="3">
-        <v>199000</v>
+        <v>308000</v>
       </c>
       <c r="E40" s="3">
-        <v>202000</v>
+        <v>398000</v>
       </c>
       <c r="F40" s="3">
-        <v>180000</v>
+        <v>439000</v>
       </c>
       <c r="G40" s="3">
-        <v>167000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -12596,22 +11862,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="3">
-        <v>115000</v>
+        <v>120000</v>
       </c>
       <c r="C41" s="3">
-        <v>161000</v>
+        <v>156000</v>
       </c>
       <c r="D41" s="3">
-        <v>177000</v>
+        <v>207000</v>
       </c>
       <c r="E41" s="3">
-        <v>214000</v>
+        <v>218000</v>
       </c>
       <c r="F41" s="3">
-        <v>233000</v>
+        <v>256000</v>
       </c>
       <c r="G41" s="3">
-        <v>276000</v>
+        <v>284000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -12673,22 +11939,22 @@
         <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>3605</v>
+        <v>3447</v>
       </c>
       <c r="C47" s="3">
-        <v>5801</v>
+        <v>5851</v>
       </c>
       <c r="D47" s="3">
-        <v>8258</v>
+        <v>7757</v>
       </c>
       <c r="E47" s="3">
-        <v>9214</v>
+        <v>7816</v>
       </c>
       <c r="F47" s="3">
-        <v>6279</v>
+        <v>8102</v>
       </c>
       <c r="G47" s="3">
-        <v>8436</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -12696,22 +11962,22 @@
         <v>2</v>
       </c>
       <c r="B48" s="3">
-        <v>2645</v>
+        <v>2925</v>
       </c>
       <c r="C48" s="3">
-        <v>4320</v>
+        <v>4104</v>
       </c>
       <c r="D48" s="3">
-        <v>8846</v>
+        <v>8569</v>
       </c>
       <c r="E48" s="3">
-        <v>8258</v>
+        <v>8742</v>
       </c>
       <c r="F48" s="3">
-        <v>5803</v>
+        <v>8003</v>
       </c>
       <c r="G48" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -12719,22 +11985,22 @@
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <v>1777</v>
+        <v>2265</v>
       </c>
       <c r="C49" s="3">
-        <v>2592</v>
+        <v>3703</v>
       </c>
       <c r="D49" s="3">
-        <v>5375</v>
+        <v>8094</v>
       </c>
       <c r="E49" s="3">
-        <v>7742</v>
+        <v>8799</v>
       </c>
       <c r="F49" s="3">
-        <v>8414</v>
+        <v>7827</v>
       </c>
       <c r="G49" s="3">
-        <v>11400</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -12742,22 +12008,22 @@
         <v>4</v>
       </c>
       <c r="B50" s="3">
-        <v>2235</v>
+        <v>1924</v>
       </c>
       <c r="C50" s="3">
-        <v>3878</v>
+        <v>3611</v>
       </c>
       <c r="D50" s="3">
-        <v>8031</v>
+        <v>7757</v>
       </c>
       <c r="E50" s="3">
-        <v>9525</v>
+        <v>8299</v>
       </c>
       <c r="F50" s="3">
-        <v>8808</v>
+        <v>7922</v>
       </c>
       <c r="G50" s="3">
-        <v>8395</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -12765,22 +12031,22 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <v>2752</v>
+        <v>2432</v>
       </c>
       <c r="C51" s="3">
-        <v>3806</v>
+        <v>3953</v>
       </c>
       <c r="D51" s="3">
-        <v>7353</v>
+        <v>7641</v>
       </c>
       <c r="E51" s="3">
-        <v>9525</v>
+        <v>8376</v>
       </c>
       <c r="F51" s="3">
-        <v>8502</v>
+        <v>8591</v>
       </c>
       <c r="G51" s="3">
-        <v>11100</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -12788,22 +12054,22 @@
         <v>6</v>
       </c>
       <c r="B52" s="3">
-        <v>2797</v>
+        <v>2461</v>
       </c>
       <c r="C52" s="3">
-        <v>3075</v>
+        <v>3103</v>
       </c>
       <c r="D52" s="3">
-        <v>5152</v>
+        <v>4995</v>
       </c>
       <c r="E52" s="3">
-        <v>8445</v>
+        <v>8560</v>
       </c>
       <c r="F52" s="3">
-        <v>7553</v>
+        <v>9503</v>
       </c>
       <c r="G52" s="3">
-        <v>19400</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -12865,22 +12131,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>120000</v>
+        <v>116000</v>
       </c>
       <c r="C58" s="3">
-        <v>182000</v>
+        <v>166000</v>
       </c>
       <c r="D58" s="3">
-        <v>286000</v>
+        <v>322000</v>
       </c>
       <c r="E58" s="3">
-        <v>301000</v>
+        <v>311000</v>
       </c>
       <c r="F58" s="3">
-        <v>273000</v>
+        <v>282000</v>
       </c>
       <c r="G58" s="3">
-        <v>354000</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -12888,22 +12154,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="3">
-        <v>88600</v>
+        <v>94400</v>
       </c>
       <c r="C59" s="3">
-        <v>128000</v>
+        <v>135000</v>
       </c>
       <c r="D59" s="3">
-        <v>268000</v>
+        <v>284000</v>
       </c>
       <c r="E59" s="3">
-        <v>271000</v>
+        <v>281000</v>
       </c>
       <c r="F59" s="3">
-        <v>260000</v>
+        <v>266000</v>
       </c>
       <c r="G59" s="3">
-        <v>333000</v>
+        <v>293000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -12911,22 +12177,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>82500</v>
+        <v>85600</v>
       </c>
       <c r="C60" s="3">
-        <v>112000</v>
+        <v>106000</v>
       </c>
       <c r="D60" s="3">
-        <v>244000</v>
+        <v>272000</v>
       </c>
       <c r="E60" s="3">
-        <v>282000</v>
+        <v>293000</v>
       </c>
       <c r="F60" s="3">
-        <v>282000</v>
+        <v>270000</v>
       </c>
       <c r="G60" s="3">
-        <v>342000</v>
+        <v>406000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -12934,22 +12200,22 @@
         <v>4</v>
       </c>
       <c r="B61" s="3">
-        <v>83400</v>
+        <v>88300</v>
       </c>
       <c r="C61" s="3">
-        <v>114000</v>
+        <v>103000</v>
       </c>
       <c r="D61" s="3">
-        <v>259000</v>
+        <v>253000</v>
       </c>
       <c r="E61" s="3">
-        <v>306000</v>
+        <v>329000</v>
       </c>
       <c r="F61" s="3">
-        <v>256000</v>
+        <v>277000</v>
       </c>
       <c r="G61" s="3">
-        <v>380000</v>
+        <v>231000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -12957,22 +12223,22 @@
         <v>5</v>
       </c>
       <c r="B62" s="3">
-        <v>84500</v>
+        <v>79900</v>
       </c>
       <c r="C62" s="3">
-        <v>128000</v>
+        <v>113000</v>
       </c>
       <c r="D62" s="3">
-        <v>239000</v>
+        <v>248000</v>
       </c>
       <c r="E62" s="3">
-        <v>295000</v>
+        <v>294000</v>
       </c>
       <c r="F62" s="3">
-        <v>297000</v>
+        <v>262000</v>
       </c>
       <c r="G62" s="3">
-        <v>403000</v>
+        <v>354000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -12980,22 +12246,22 @@
         <v>6</v>
       </c>
       <c r="B63" s="3">
-        <v>90500</v>
+        <v>88800</v>
       </c>
       <c r="C63" s="3">
-        <v>115000</v>
+        <v>104000</v>
       </c>
       <c r="D63" s="3">
-        <v>171000</v>
+        <v>170000</v>
       </c>
       <c r="E63" s="3">
-        <v>247000</v>
+        <v>280000</v>
       </c>
       <c r="F63" s="3">
-        <v>262000</v>
+        <v>282000</v>
       </c>
       <c r="G63" s="3">
-        <v>272000</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -13057,22 +12323,22 @@
         <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>8982</v>
+        <v>9752</v>
       </c>
       <c r="C69" s="3">
+        <v>10700</v>
+      </c>
+      <c r="D69" s="3">
         <v>11800</v>
       </c>
-      <c r="D69" s="3">
-        <v>12600</v>
-      </c>
       <c r="E69" s="3">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="F69" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="G69" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -13080,22 +12346,22 @@
         <v>2</v>
       </c>
       <c r="B70" s="3">
-        <v>6826</v>
+        <v>6243</v>
       </c>
       <c r="C70" s="3">
-        <v>9022</v>
+        <v>9266</v>
       </c>
       <c r="D70" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="E70" s="3">
         <v>11900</v>
       </c>
       <c r="F70" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G70" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -13103,22 +12369,22 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>5953</v>
+        <v>5505</v>
       </c>
       <c r="C71" s="3">
-        <v>7340</v>
+        <v>7968</v>
       </c>
       <c r="D71" s="3">
-        <v>9287</v>
+        <v>8175</v>
       </c>
       <c r="E71" s="3">
-        <v>9340</v>
+        <v>9626</v>
       </c>
       <c r="F71" s="3">
-        <v>9443</v>
+        <v>9147</v>
       </c>
       <c r="G71" s="3">
-        <v>8863</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -13126,22 +12392,22 @@
         <v>4</v>
       </c>
       <c r="B72" s="3">
-        <v>5851</v>
+        <v>4946</v>
       </c>
       <c r="C72" s="3">
-        <v>7728</v>
+        <v>6023</v>
       </c>
       <c r="D72" s="3">
-        <v>8623</v>
+        <v>8943</v>
       </c>
       <c r="E72" s="3">
-        <v>9383</v>
+        <v>9626</v>
       </c>
       <c r="F72" s="3">
-        <v>9383</v>
+        <v>8865</v>
       </c>
       <c r="G72" s="3">
-        <v>8735</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -13149,22 +12415,22 @@
         <v>5</v>
       </c>
       <c r="B73" s="3">
-        <v>5657</v>
+        <v>6872</v>
       </c>
       <c r="C73" s="3">
-        <v>7340</v>
+        <v>8789</v>
       </c>
       <c r="D73" s="3">
-        <v>8827</v>
+        <v>11300</v>
       </c>
       <c r="E73" s="3">
-        <v>9558</v>
+        <v>12600</v>
       </c>
       <c r="F73" s="3">
-        <v>9351</v>
+        <v>12000</v>
       </c>
       <c r="G73" s="3">
-        <v>8664</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -13172,22 +12438,22 @@
         <v>6</v>
       </c>
       <c r="B74" s="3">
-        <v>5785</v>
+        <v>6168</v>
       </c>
       <c r="C74" s="3">
-        <v>7393</v>
+        <v>7420</v>
       </c>
       <c r="D74" s="3">
-        <v>8175</v>
+        <v>8143</v>
       </c>
       <c r="E74" s="3">
-        <v>9340</v>
+        <v>9706</v>
       </c>
       <c r="F74" s="3">
-        <v>9810</v>
+        <v>10000</v>
       </c>
       <c r="G74" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -13249,22 +12515,22 @@
         <v>1</v>
       </c>
       <c r="B80" s="3">
-        <v>331000</v>
+        <v>349000</v>
       </c>
       <c r="C80" s="3">
-        <v>428000</v>
+        <v>417000</v>
       </c>
       <c r="D80" s="3">
-        <v>500000</v>
+        <v>502000</v>
       </c>
       <c r="E80" s="3">
-        <v>545000</v>
+        <v>547000</v>
       </c>
       <c r="F80" s="3">
-        <v>570000</v>
+        <v>581000</v>
       </c>
       <c r="G80" s="3">
-        <v>522000</v>
+        <v>497000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -13272,22 +12538,22 @@
         <v>2</v>
       </c>
       <c r="B81" s="3">
-        <v>110000</v>
+        <v>113000</v>
       </c>
       <c r="C81" s="3">
-        <v>204000</v>
+        <v>179000</v>
       </c>
       <c r="D81" s="3">
-        <v>274000</v>
+        <v>275000</v>
       </c>
       <c r="E81" s="3">
         <v>350000</v>
       </c>
       <c r="F81" s="3">
-        <v>392000</v>
+        <v>395000</v>
       </c>
       <c r="G81" s="3">
-        <v>392000</v>
+        <v>402000</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -13295,22 +12561,22 @@
         <v>3</v>
       </c>
       <c r="B82" s="3">
-        <v>138000</v>
+        <v>122000</v>
       </c>
       <c r="C82" s="3">
-        <v>155000</v>
+        <v>171000</v>
       </c>
       <c r="D82" s="3">
-        <v>204000</v>
+        <v>199000</v>
       </c>
       <c r="E82" s="3">
-        <v>215000</v>
+        <v>224000</v>
       </c>
       <c r="F82" s="3">
-        <v>201000</v>
+        <v>198000</v>
       </c>
       <c r="G82" s="3">
-        <v>170000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -13318,22 +12584,22 @@
         <v>4</v>
       </c>
       <c r="B83" s="3">
-        <v>118000</v>
+        <v>113000</v>
       </c>
       <c r="C83" s="3">
         <v>185000</v>
       </c>
       <c r="D83" s="3">
-        <v>200000</v>
+        <v>205000</v>
       </c>
       <c r="E83" s="3">
-        <v>218000</v>
+        <v>217000</v>
       </c>
       <c r="F83" s="3">
-        <v>181000</v>
+        <v>203000</v>
       </c>
       <c r="G83" s="3">
-        <v>162000</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -13341,22 +12607,22 @@
         <v>5</v>
       </c>
       <c r="B84" s="3">
-        <v>122000</v>
+        <v>161000</v>
       </c>
       <c r="C84" s="3">
-        <v>172000</v>
+        <v>210000</v>
       </c>
       <c r="D84" s="3">
-        <v>212000</v>
+        <v>306000</v>
       </c>
       <c r="E84" s="3">
-        <v>218000</v>
+        <v>394000</v>
       </c>
       <c r="F84" s="3">
-        <v>182000</v>
+        <v>458000</v>
       </c>
       <c r="G84" s="3">
-        <v>161000</v>
+        <v>368000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -13364,22 +12630,22 @@
         <v>6</v>
       </c>
       <c r="B85" s="3">
-        <v>121000</v>
+        <v>120000</v>
       </c>
       <c r="C85" s="3">
-        <v>166000</v>
+        <v>164000</v>
       </c>
       <c r="D85" s="3">
-        <v>188000</v>
+        <v>209000</v>
       </c>
       <c r="E85" s="3">
-        <v>215000</v>
+        <v>211000</v>
       </c>
       <c r="F85" s="3">
-        <v>241000</v>
+        <v>252000</v>
       </c>
       <c r="G85" s="3">
-        <v>283000</v>
+        <v>279000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
